--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>774.7809034479048</v>
+        <v>1038.968481490968</v>
       </c>
       <c r="AB2" t="n">
-        <v>1060.089413018516</v>
+        <v>1421.5625124304</v>
       </c>
       <c r="AC2" t="n">
-        <v>958.9159672848638</v>
+        <v>1285.890581419559</v>
       </c>
       <c r="AD2" t="n">
-        <v>774780.9034479049</v>
+        <v>1038968.481490968</v>
       </c>
       <c r="AE2" t="n">
-        <v>1060089.413018516</v>
+        <v>1421562.5124304</v>
       </c>
       <c r="AF2" t="n">
         <v>3.08628197286301e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>958915.9672848638</v>
+        <v>1285890.581419559</v>
       </c>
     </row>
     <row r="3">
@@ -2308,28 +2308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>576.2514307067822</v>
+        <v>781.742046546536</v>
       </c>
       <c r="AB3" t="n">
-        <v>788.4526299119188</v>
+        <v>1069.613956110022</v>
       </c>
       <c r="AC3" t="n">
-        <v>713.2038175133408</v>
+        <v>967.5315013514968</v>
       </c>
       <c r="AD3" t="n">
-        <v>576251.4307067823</v>
+        <v>781742.046546536</v>
       </c>
       <c r="AE3" t="n">
-        <v>788452.6299119189</v>
+        <v>1069613.956110022</v>
       </c>
       <c r="AF3" t="n">
         <v>3.92770484864688e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.94791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>713203.8175133409</v>
+        <v>967531.5013514968</v>
       </c>
     </row>
     <row r="4">
@@ -2414,28 +2414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>518.6201301239662</v>
+        <v>704.5678688418039</v>
       </c>
       <c r="AB4" t="n">
-        <v>709.5989419409698</v>
+        <v>964.0208414899781</v>
       </c>
       <c r="AC4" t="n">
-        <v>641.8758148504928</v>
+        <v>872.0160453899227</v>
       </c>
       <c r="AD4" t="n">
-        <v>518620.1301239661</v>
+        <v>704567.868841804</v>
       </c>
       <c r="AE4" t="n">
-        <v>709598.9419409698</v>
+        <v>964020.8414899781</v>
       </c>
       <c r="AF4" t="n">
         <v>4.266720941783781e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>641875.8148504929</v>
+        <v>872016.0453899227</v>
       </c>
     </row>
     <row r="5">
@@ -2520,28 +2520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>493.4290446527576</v>
+        <v>669.5209422925427</v>
       </c>
       <c r="AB5" t="n">
-        <v>675.1313874470065</v>
+        <v>916.0680904240021</v>
       </c>
       <c r="AC5" t="n">
-        <v>610.6977953819169</v>
+        <v>828.6398375835745</v>
       </c>
       <c r="AD5" t="n">
-        <v>493429.0446527576</v>
+        <v>669520.9422925427</v>
       </c>
       <c r="AE5" t="n">
-        <v>675131.3874470065</v>
+        <v>916068.0904240021</v>
       </c>
       <c r="AF5" t="n">
         <v>4.423783330888628e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.46875</v>
       </c>
       <c r="AH5" t="n">
-        <v>610697.7953819169</v>
+        <v>828639.8375835745</v>
       </c>
     </row>
     <row r="6">
@@ -2626,28 +2626,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>490.8371846324134</v>
+        <v>666.9290822721986</v>
       </c>
       <c r="AB6" t="n">
-        <v>671.5850902223775</v>
+        <v>912.5217931993732</v>
       </c>
       <c r="AC6" t="n">
-        <v>607.4899517871472</v>
+        <v>825.4319939888047</v>
       </c>
       <c r="AD6" t="n">
-        <v>490837.1846324134</v>
+        <v>666929.0822721985</v>
       </c>
       <c r="AE6" t="n">
-        <v>671585.0902223776</v>
+        <v>912521.7931993732</v>
       </c>
       <c r="AF6" t="n">
         <v>4.457232918744802e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.20833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>607489.9517871472</v>
+        <v>825431.9939888048</v>
       </c>
     </row>
   </sheetData>
@@ -2923,28 +2923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>655.0773397484688</v>
+        <v>877.6284849744702</v>
       </c>
       <c r="AB2" t="n">
-        <v>896.3057162164279</v>
+        <v>1200.810011378232</v>
       </c>
       <c r="AC2" t="n">
-        <v>810.7635566337048</v>
+        <v>1086.206389239729</v>
       </c>
       <c r="AD2" t="n">
-        <v>655077.3397484688</v>
+        <v>877628.4849744702</v>
       </c>
       <c r="AE2" t="n">
-        <v>896305.7162164279</v>
+        <v>1200810.011378232</v>
       </c>
       <c r="AF2" t="n">
         <v>3.781209386929414e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.41666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>810763.5566337048</v>
+        <v>1086206.389239729</v>
       </c>
     </row>
     <row r="3">
@@ -3029,28 +3029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>515.0514631416298</v>
+        <v>698.8804117671987</v>
       </c>
       <c r="AB3" t="n">
-        <v>704.7161343372613</v>
+        <v>956.2390118076056</v>
       </c>
       <c r="AC3" t="n">
-        <v>637.4590155514189</v>
+        <v>864.9769026105693</v>
       </c>
       <c r="AD3" t="n">
-        <v>515051.4631416298</v>
+        <v>698880.4117671987</v>
       </c>
       <c r="AE3" t="n">
-        <v>704716.1343372613</v>
+        <v>956239.0118076056</v>
       </c>
       <c r="AF3" t="n">
         <v>4.598543600567894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>637459.0155514189</v>
+        <v>864976.9026105693</v>
       </c>
     </row>
     <row r="4">
@@ -3135,28 +3135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>474.5886478246377</v>
+        <v>648.7370473000985</v>
       </c>
       <c r="AB4" t="n">
-        <v>649.3531253271266</v>
+        <v>887.630648374606</v>
       </c>
       <c r="AC4" t="n">
-        <v>587.3797744187403</v>
+        <v>802.9164250911721</v>
       </c>
       <c r="AD4" t="n">
-        <v>474588.6478246377</v>
+        <v>648737.0473000986</v>
       </c>
       <c r="AE4" t="n">
-        <v>649353.1253271266</v>
+        <v>887630.648374606</v>
       </c>
       <c r="AF4" t="n">
         <v>4.878550141725631e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.20833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>587379.7744187403</v>
+        <v>802916.4250911721</v>
       </c>
     </row>
     <row r="5">
@@ -3241,28 +3241,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>473.7760333528472</v>
+        <v>647.924432828308</v>
       </c>
       <c r="AB5" t="n">
-        <v>648.2412703568024</v>
+        <v>886.5187934042818</v>
       </c>
       <c r="AC5" t="n">
-        <v>586.3740333262856</v>
+        <v>801.9106839987174</v>
       </c>
       <c r="AD5" t="n">
-        <v>473776.0333528472</v>
+        <v>647924.432828308</v>
       </c>
       <c r="AE5" t="n">
-        <v>648241.2703568024</v>
+        <v>886518.7934042818</v>
       </c>
       <c r="AF5" t="n">
         <v>4.896289604648718e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>586374.0333262855</v>
+        <v>801910.6839987175</v>
       </c>
     </row>
   </sheetData>
@@ -3538,28 +3538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>441.8179062033792</v>
+        <v>610.1492577107522</v>
       </c>
       <c r="AB2" t="n">
-        <v>604.5147508978358</v>
+        <v>834.8331322853331</v>
       </c>
       <c r="AC2" t="n">
-        <v>546.8207115139273</v>
+        <v>755.1578298356803</v>
       </c>
       <c r="AD2" t="n">
-        <v>441817.9062033792</v>
+        <v>610149.2577107522</v>
       </c>
       <c r="AE2" t="n">
-        <v>604514.7508978358</v>
+        <v>834833.1322853331</v>
       </c>
       <c r="AF2" t="n">
         <v>6.640217299456314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>546820.7115139273</v>
+        <v>755157.8298356803</v>
       </c>
     </row>
     <row r="3">
@@ -3644,28 +3644,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>432.011417375211</v>
+        <v>609.6972395924532</v>
       </c>
       <c r="AB3" t="n">
-        <v>591.0970802513824</v>
+        <v>834.2146611542446</v>
       </c>
       <c r="AC3" t="n">
-        <v>534.6836045221523</v>
+        <v>754.5983847213131</v>
       </c>
       <c r="AD3" t="n">
-        <v>432011.417375211</v>
+        <v>609697.2395924532</v>
       </c>
       <c r="AE3" t="n">
-        <v>591097.0802513824</v>
+        <v>834214.6611542446</v>
       </c>
       <c r="AF3" t="n">
         <v>6.67178916712631e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>534683.6045221523</v>
+        <v>754598.3847213131</v>
       </c>
     </row>
   </sheetData>
@@ -3941,28 +3941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>498.5235038173269</v>
+        <v>688.0392557416386</v>
       </c>
       <c r="AB2" t="n">
-        <v>682.1018512276464</v>
+        <v>941.4056638553857</v>
       </c>
       <c r="AC2" t="n">
-        <v>617.00300788244</v>
+        <v>851.5592285681745</v>
       </c>
       <c r="AD2" t="n">
-        <v>498523.5038173269</v>
+        <v>688039.2557416386</v>
       </c>
       <c r="AE2" t="n">
-        <v>682101.8512276465</v>
+        <v>941405.6638553857</v>
       </c>
       <c r="AF2" t="n">
         <v>5.396501809999385e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.46354166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>617003.00788244</v>
+        <v>851559.2285681745</v>
       </c>
     </row>
     <row r="3">
@@ -4047,28 +4047,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>445.9193594891327</v>
+        <v>616.5041365752675</v>
       </c>
       <c r="AB3" t="n">
-        <v>610.1265402267524</v>
+        <v>843.5281579052319</v>
       </c>
       <c r="AC3" t="n">
-        <v>551.8969195454878</v>
+        <v>763.0230144139608</v>
       </c>
       <c r="AD3" t="n">
-        <v>445919.3594891327</v>
+        <v>616504.1365752674</v>
       </c>
       <c r="AE3" t="n">
-        <v>610126.5402267524</v>
+        <v>843528.1579052318</v>
       </c>
       <c r="AF3" t="n">
         <v>5.90482517842429e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>551896.9195454877</v>
+        <v>763023.0144139609</v>
       </c>
     </row>
   </sheetData>
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.1614086358518</v>
+        <v>614.8335440417329</v>
       </c>
       <c r="AB2" t="n">
-        <v>600.8800137295435</v>
+        <v>841.2423794995087</v>
       </c>
       <c r="AC2" t="n">
-        <v>543.5328685595912</v>
+        <v>760.9553874911701</v>
       </c>
       <c r="AD2" t="n">
-        <v>439161.4086358518</v>
+        <v>614833.5440417329</v>
       </c>
       <c r="AE2" t="n">
-        <v>600880.0137295435</v>
+        <v>841242.3794995088</v>
       </c>
       <c r="AF2" t="n">
         <v>7.40241183917517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.08333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>543532.8685595911</v>
+        <v>760955.3874911701</v>
       </c>
     </row>
   </sheetData>
@@ -4641,28 +4641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>683.3462464142749</v>
+        <v>925.9669676286017</v>
       </c>
       <c r="AB2" t="n">
-        <v>934.9844814527272</v>
+        <v>1266.948855888962</v>
       </c>
       <c r="AC2" t="n">
-        <v>845.7508748018398</v>
+        <v>1146.033035256806</v>
       </c>
       <c r="AD2" t="n">
-        <v>683346.2464142749</v>
+        <v>925966.9676286017</v>
       </c>
       <c r="AE2" t="n">
-        <v>934984.4814527272</v>
+        <v>1266948.855888962</v>
       </c>
       <c r="AF2" t="n">
         <v>3.571648762561052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.92708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>845750.8748018398</v>
+        <v>1146033.035256806</v>
       </c>
     </row>
     <row r="3">
@@ -4747,28 +4747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>535.6042735325</v>
+        <v>720.006599002504</v>
       </c>
       <c r="AB3" t="n">
-        <v>732.8373962400507</v>
+        <v>985.1447932045525</v>
       </c>
       <c r="AC3" t="n">
-        <v>662.8964236866451</v>
+        <v>891.1239568005103</v>
       </c>
       <c r="AD3" t="n">
-        <v>535604.2735325</v>
+        <v>720006.599002504</v>
       </c>
       <c r="AE3" t="n">
-        <v>732837.3962400507</v>
+        <v>985144.7932045525</v>
       </c>
       <c r="AF3" t="n">
         <v>4.403023519115461e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.07291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>662896.4236866451</v>
+        <v>891123.9568005103</v>
       </c>
     </row>
     <row r="4">
@@ -4853,28 +4853,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>482.6950697178301</v>
+        <v>657.4557862967119</v>
       </c>
       <c r="AB4" t="n">
-        <v>660.4446893914861</v>
+        <v>899.5600117133903</v>
       </c>
       <c r="AC4" t="n">
-        <v>597.4127751759052</v>
+        <v>813.7072667358694</v>
       </c>
       <c r="AD4" t="n">
-        <v>482695.0697178301</v>
+        <v>657455.786296712</v>
       </c>
       <c r="AE4" t="n">
-        <v>660444.6893914861</v>
+        <v>899560.0117133902</v>
       </c>
       <c r="AF4" t="n">
         <v>4.717966475890543e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.52083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>597412.7751759052</v>
+        <v>813707.2667358695</v>
       </c>
     </row>
     <row r="5">
@@ -4959,19 +4959,19 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>467.7131025160824</v>
+        <v>652.0802515374486</v>
       </c>
       <c r="AB5" t="n">
-        <v>639.94570090831</v>
+        <v>892.2049679039097</v>
       </c>
       <c r="AC5" t="n">
-        <v>578.8701813830523</v>
+        <v>807.054177984697</v>
       </c>
       <c r="AD5" t="n">
-        <v>467713.1025160823</v>
+        <v>652080.2515374486</v>
       </c>
       <c r="AE5" t="n">
-        <v>639945.70090831</v>
+        <v>892204.9679039097</v>
       </c>
       <c r="AF5" t="n">
         <v>4.788175459511633e-06</v>
@@ -4980,7 +4980,7 @@
         <v>35</v>
       </c>
       <c r="AH5" t="n">
-        <v>578870.1813830524</v>
+        <v>807054.177984697</v>
       </c>
     </row>
   </sheetData>
@@ -5256,28 +5256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>443.1377718146173</v>
+        <v>626.7924884319211</v>
       </c>
       <c r="AB2" t="n">
-        <v>606.3206492554929</v>
+        <v>857.6051348055552</v>
       </c>
       <c r="AC2" t="n">
-        <v>548.4542574669238</v>
+        <v>775.7565043960786</v>
       </c>
       <c r="AD2" t="n">
-        <v>443137.7718146173</v>
+        <v>626792.4884319211</v>
       </c>
       <c r="AE2" t="n">
-        <v>606320.6492554928</v>
+        <v>857605.1348055552</v>
       </c>
       <c r="AF2" t="n">
         <v>7.833590551240628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>548454.2574669238</v>
+        <v>775756.5043960786</v>
       </c>
     </row>
   </sheetData>
@@ -5553,28 +5553,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>571.0139624902871</v>
+        <v>781.8913948917725</v>
       </c>
       <c r="AB2" t="n">
-        <v>781.2864948373198</v>
+        <v>1069.818301104759</v>
       </c>
       <c r="AC2" t="n">
-        <v>706.7216083125278</v>
+        <v>967.7163439467358</v>
       </c>
       <c r="AD2" t="n">
-        <v>571013.9624902871</v>
+        <v>781891.3948917725</v>
       </c>
       <c r="AE2" t="n">
-        <v>781286.4948373197</v>
+        <v>1069818.301104759</v>
       </c>
       <c r="AF2" t="n">
         <v>4.45638520770789e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.90104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>706721.6083125278</v>
+        <v>967716.3439467358</v>
       </c>
     </row>
     <row r="3">
@@ -5659,28 +5659,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>465.4113505912332</v>
+        <v>638.003338695908</v>
       </c>
       <c r="AB3" t="n">
-        <v>636.7963423786031</v>
+        <v>872.9443147245496</v>
       </c>
       <c r="AC3" t="n">
-        <v>576.0213932112683</v>
+        <v>789.6317345122785</v>
       </c>
       <c r="AD3" t="n">
-        <v>465411.3505912332</v>
+        <v>638003.3386959081</v>
       </c>
       <c r="AE3" t="n">
-        <v>636796.3423786031</v>
+        <v>872944.3147245497</v>
       </c>
       <c r="AF3" t="n">
         <v>5.245881098689978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.59895833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>576021.3932112684</v>
+        <v>789631.7345122785</v>
       </c>
     </row>
     <row r="4">
@@ -5765,28 +5765,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>460.3286629180063</v>
+        <v>632.819165796196</v>
       </c>
       <c r="AB4" t="n">
-        <v>629.8419848717396</v>
+        <v>865.8511006535966</v>
       </c>
       <c r="AC4" t="n">
-        <v>569.7307498243576</v>
+        <v>783.2154868368688</v>
       </c>
       <c r="AD4" t="n">
-        <v>460328.6629180063</v>
+        <v>632819.165796196</v>
       </c>
       <c r="AE4" t="n">
-        <v>629841.9848717395</v>
+        <v>865851.1006535967</v>
       </c>
       <c r="AF4" t="n">
         <v>5.333148718973829e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.02604166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>569730.7498243577</v>
+        <v>783215.4868368688</v>
       </c>
     </row>
   </sheetData>
@@ -6062,28 +6062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>629.9299093575202</v>
+        <v>842.1865790852746</v>
       </c>
       <c r="AB2" t="n">
-        <v>861.8978925292024</v>
+        <v>1152.316832154099</v>
       </c>
       <c r="AC2" t="n">
-        <v>779.6395673475042</v>
+        <v>1042.341330980143</v>
       </c>
       <c r="AD2" t="n">
-        <v>629929.9093575202</v>
+        <v>842186.5790852746</v>
       </c>
       <c r="AE2" t="n">
-        <v>861897.8925292024</v>
+        <v>1152316.832154099</v>
       </c>
       <c r="AF2" t="n">
         <v>3.986458538210012e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>779639.5673475042</v>
+        <v>1042341.330980143</v>
       </c>
     </row>
     <row r="3">
@@ -6168,28 +6168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>495.3479072701243</v>
+        <v>678.6844600865124</v>
       </c>
       <c r="AB3" t="n">
-        <v>677.7568599343317</v>
+        <v>928.6060197355848</v>
       </c>
       <c r="AC3" t="n">
-        <v>613.0726964599256</v>
+        <v>839.9811645187542</v>
       </c>
       <c r="AD3" t="n">
-        <v>495347.9072701243</v>
+        <v>678684.4600865125</v>
       </c>
       <c r="AE3" t="n">
-        <v>677756.8599343317</v>
+        <v>928606.0197355849</v>
       </c>
       <c r="AF3" t="n">
         <v>4.794823553776886e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.77083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>613072.6964599256</v>
+        <v>839981.1645187542</v>
       </c>
     </row>
     <row r="4">
@@ -6274,19 +6274,19 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>459.0340966660708</v>
+        <v>642.3023186448974</v>
       </c>
       <c r="AB4" t="n">
-        <v>628.070702213609</v>
+        <v>878.8263687483666</v>
       </c>
       <c r="AC4" t="n">
-        <v>568.1285158971084</v>
+        <v>794.9524135555772</v>
       </c>
       <c r="AD4" t="n">
-        <v>459034.0966660707</v>
+        <v>642302.3186448973</v>
       </c>
       <c r="AE4" t="n">
-        <v>628070.702213609</v>
+        <v>878826.3687483666</v>
       </c>
       <c r="AF4" t="n">
         <v>5.037745938510161e-06</v>
@@ -6295,7 +6295,7 @@
         <v>35</v>
       </c>
       <c r="AH4" t="n">
-        <v>568128.5158971084</v>
+        <v>794952.4135555772</v>
       </c>
     </row>
     <row r="5">
@@ -6380,28 +6380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>459.5042180190196</v>
+        <v>633.1896804019779</v>
       </c>
       <c r="AB5" t="n">
-        <v>628.7139429890038</v>
+        <v>866.358055083178</v>
       </c>
       <c r="AC5" t="n">
-        <v>568.7103666756935</v>
+        <v>783.6740582472061</v>
       </c>
       <c r="AD5" t="n">
-        <v>459504.2180190196</v>
+        <v>633189.6804019779</v>
       </c>
       <c r="AE5" t="n">
-        <v>628713.9429890038</v>
+        <v>866358.055083178</v>
       </c>
       <c r="AF5" t="n">
         <v>5.040791775042063e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.97395833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>568710.3666756935</v>
+        <v>783674.058247206</v>
       </c>
     </row>
   </sheetData>
@@ -6677,28 +6677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>747.8323584925872</v>
+        <v>1001.597737051077</v>
       </c>
       <c r="AB2" t="n">
-        <v>1023.217224924754</v>
+        <v>1370.430211206854</v>
       </c>
       <c r="AC2" t="n">
-        <v>925.5628090723295</v>
+        <v>1239.638275260153</v>
       </c>
       <c r="AD2" t="n">
-        <v>747832.3584925872</v>
+        <v>1001597.737051077</v>
       </c>
       <c r="AE2" t="n">
-        <v>1023217.224924754</v>
+        <v>1370430.211206854</v>
       </c>
       <c r="AF2" t="n">
         <v>3.229929476265174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>925562.8090723295</v>
+        <v>1239638.275260153</v>
       </c>
     </row>
     <row r="3">
@@ -6783,28 +6783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>565.8282191461457</v>
+        <v>760.9834334550843</v>
       </c>
       <c r="AB3" t="n">
-        <v>774.1911320150157</v>
+        <v>1041.211105872923</v>
       </c>
       <c r="AC3" t="n">
-        <v>700.3034169595801</v>
+        <v>941.8393792773755</v>
       </c>
       <c r="AD3" t="n">
-        <v>565828.2191461456</v>
+        <v>760983.4334550843</v>
       </c>
       <c r="AE3" t="n">
-        <v>774191.1320150157</v>
+        <v>1041211.105872923</v>
       </c>
       <c r="AF3" t="n">
         <v>4.077375254384582e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>700303.41695958</v>
+        <v>941839.3792773755</v>
       </c>
     </row>
     <row r="4">
@@ -6889,28 +6889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>510.8703756006015</v>
+        <v>696.2285895139881</v>
       </c>
       <c r="AB4" t="n">
-        <v>698.9953859070623</v>
+        <v>952.6106716106217</v>
       </c>
       <c r="AC4" t="n">
-        <v>632.2842473222773</v>
+        <v>861.694846109578</v>
       </c>
       <c r="AD4" t="n">
-        <v>510870.3756006015</v>
+        <v>696228.5895139881</v>
       </c>
       <c r="AE4" t="n">
-        <v>698995.3859070623</v>
+        <v>952610.6716106217</v>
       </c>
       <c r="AF4" t="n">
         <v>4.393206168425599e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>632284.2473222773</v>
+        <v>861694.8461095779</v>
       </c>
     </row>
     <row r="5">
@@ -6995,28 +6995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>486.106538566072</v>
+        <v>661.7360829214682</v>
       </c>
       <c r="AB5" t="n">
-        <v>665.1124115730343</v>
+        <v>905.4165023887416</v>
       </c>
       <c r="AC5" t="n">
-        <v>601.6350165036357</v>
+        <v>819.0048221608016</v>
       </c>
       <c r="AD5" t="n">
-        <v>486106.538566072</v>
+        <v>661736.0829214682</v>
       </c>
       <c r="AE5" t="n">
-        <v>665112.4115730342</v>
+        <v>905416.5023887416</v>
       </c>
       <c r="AF5" t="n">
         <v>4.558043693988794e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.15625</v>
       </c>
       <c r="AH5" t="n">
-        <v>601635.0165036357</v>
+        <v>819004.8221608016</v>
       </c>
     </row>
     <row r="6">
@@ -7101,28 +7101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>486.7688938138621</v>
+        <v>662.3984381692584</v>
       </c>
       <c r="AB6" t="n">
-        <v>666.0186752441119</v>
+        <v>906.3227660598194</v>
       </c>
       <c r="AC6" t="n">
-        <v>602.4547876418948</v>
+        <v>819.8245932990608</v>
       </c>
       <c r="AD6" t="n">
-        <v>486768.8938138621</v>
+        <v>662398.4381692584</v>
       </c>
       <c r="AE6" t="n">
-        <v>666018.6752441119</v>
+        <v>906322.7660598194</v>
       </c>
       <c r="AF6" t="n">
         <v>4.55748992850538e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.15625</v>
       </c>
       <c r="AH6" t="n">
-        <v>602454.7876418948</v>
+        <v>819824.5932990608</v>
       </c>
     </row>
   </sheetData>
@@ -7398,28 +7398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>522.2753224359691</v>
+        <v>712.6701622200906</v>
       </c>
       <c r="AB2" t="n">
-        <v>714.6001373179562</v>
+        <v>975.106756738106</v>
       </c>
       <c r="AC2" t="n">
-        <v>646.3997031599216</v>
+        <v>882.043936445949</v>
       </c>
       <c r="AD2" t="n">
-        <v>522275.3224359691</v>
+        <v>712670.1622200905</v>
       </c>
       <c r="AE2" t="n">
-        <v>714600.1373179562</v>
+        <v>975106.756738106</v>
       </c>
       <c r="AF2" t="n">
         <v>5.047152958964123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.58333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>646399.7031599216</v>
+        <v>882043.936445949</v>
       </c>
     </row>
     <row r="3">
@@ -7504,28 +7504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>450.5676962074822</v>
+        <v>621.8215667867062</v>
       </c>
       <c r="AB3" t="n">
-        <v>616.4865995949411</v>
+        <v>850.8037005089868</v>
       </c>
       <c r="AC3" t="n">
-        <v>557.6499837739759</v>
+        <v>769.6041894429018</v>
       </c>
       <c r="AD3" t="n">
-        <v>450567.6962074823</v>
+        <v>621821.5667867062</v>
       </c>
       <c r="AE3" t="n">
-        <v>616486.5995949411</v>
+        <v>850803.7005089868</v>
       </c>
       <c r="AF3" t="n">
         <v>5.697156365919577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.05208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>557649.9837739759</v>
+        <v>769604.1894429018</v>
       </c>
     </row>
     <row r="4">
@@ -7610,28 +7610,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>451.2059945766505</v>
+        <v>622.4598651558745</v>
       </c>
       <c r="AB4" t="n">
-        <v>617.3599475833737</v>
+        <v>851.6770484974196</v>
       </c>
       <c r="AC4" t="n">
-        <v>558.4399806561443</v>
+        <v>770.39418632507</v>
       </c>
       <c r="AD4" t="n">
-        <v>451205.9945766506</v>
+        <v>622459.8651558745</v>
       </c>
       <c r="AE4" t="n">
-        <v>617359.9475833738</v>
+        <v>851677.0484974196</v>
       </c>
       <c r="AF4" t="n">
         <v>5.695698959177524e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>558439.9806561442</v>
+        <v>770394.18632507</v>
       </c>
     </row>
   </sheetData>
@@ -7907,28 +7907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>451.5893804077004</v>
+        <v>630.0714637667238</v>
       </c>
       <c r="AB2" t="n">
-        <v>617.8845129912053</v>
+        <v>862.0915735168145</v>
       </c>
       <c r="AC2" t="n">
-        <v>558.9144822776844</v>
+        <v>779.8147636934917</v>
       </c>
       <c r="AD2" t="n">
-        <v>451589.3804077004</v>
+        <v>630071.4637667238</v>
       </c>
       <c r="AE2" t="n">
-        <v>617884.5129912053</v>
+        <v>862091.5735168145</v>
       </c>
       <c r="AF2" t="n">
         <v>6.231054968787953e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.45833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>558914.4822776845</v>
+        <v>779814.7636934917</v>
       </c>
     </row>
     <row r="3">
@@ -8013,28 +8013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>437.0152550428054</v>
+        <v>606.232055678448</v>
       </c>
       <c r="AB3" t="n">
-        <v>597.9435517019231</v>
+        <v>829.4734436499774</v>
       </c>
       <c r="AC3" t="n">
-        <v>540.8766583465364</v>
+        <v>750.3096623613129</v>
       </c>
       <c r="AD3" t="n">
-        <v>437015.2550428054</v>
+        <v>606232.0556784479</v>
       </c>
       <c r="AE3" t="n">
-        <v>597943.551701923</v>
+        <v>829473.4436499774</v>
       </c>
       <c r="AF3" t="n">
         <v>6.376624470095424e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>540876.6583465363</v>
+        <v>750309.6623613129</v>
       </c>
     </row>
   </sheetData>
@@ -13627,28 +13627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>435.280692285082</v>
+        <v>611.9584225752097</v>
       </c>
       <c r="AB2" t="n">
-        <v>595.5702464132979</v>
+        <v>837.3085114676046</v>
       </c>
       <c r="AC2" t="n">
-        <v>538.7298579837026</v>
+        <v>757.3969623030124</v>
       </c>
       <c r="AD2" t="n">
-        <v>435280.692285082</v>
+        <v>611958.4225752098</v>
       </c>
       <c r="AE2" t="n">
-        <v>595570.246413298</v>
+        <v>837308.5114676045</v>
       </c>
       <c r="AF2" t="n">
         <v>7.012629727636983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.38020833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>538729.8579837026</v>
+        <v>757396.9623030124</v>
       </c>
     </row>
   </sheetData>
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>455.5388081473654</v>
+        <v>646.8751819980673</v>
       </c>
       <c r="AB2" t="n">
-        <v>623.2882942610701</v>
+        <v>885.083162128667</v>
       </c>
       <c r="AC2" t="n">
-        <v>563.8025342474081</v>
+        <v>800.6120673571262</v>
       </c>
       <c r="AD2" t="n">
-        <v>455538.8081473655</v>
+        <v>646875.1819980673</v>
       </c>
       <c r="AE2" t="n">
-        <v>623288.2942610701</v>
+        <v>885083.162128667</v>
       </c>
       <c r="AF2" t="n">
         <v>8.328876041602379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.49479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>563802.534247408</v>
+        <v>800612.0673571262</v>
       </c>
     </row>
   </sheetData>
@@ -14221,28 +14221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>604.9604471756518</v>
+        <v>816.5085361779448</v>
       </c>
       <c r="AB2" t="n">
-        <v>827.733572797044</v>
+        <v>1117.183001012989</v>
       </c>
       <c r="AC2" t="n">
-        <v>748.7358423406591</v>
+        <v>1010.560623372498</v>
       </c>
       <c r="AD2" t="n">
-        <v>604960.4471756518</v>
+        <v>816508.5361779449</v>
       </c>
       <c r="AE2" t="n">
-        <v>827733.5727970439</v>
+        <v>1117183.001012989</v>
       </c>
       <c r="AF2" t="n">
         <v>4.211215210959694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>748735.8423406591</v>
+        <v>1010560.623372498</v>
       </c>
     </row>
     <row r="3">
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.8131740384758</v>
+        <v>658.9136876906809</v>
       </c>
       <c r="AB3" t="n">
-        <v>664.7110172840477</v>
+        <v>901.5547767186887</v>
       </c>
       <c r="AC3" t="n">
-        <v>601.2719307222295</v>
+        <v>815.5116541687324</v>
       </c>
       <c r="AD3" t="n">
-        <v>485813.1740384758</v>
+        <v>658913.687690681</v>
       </c>
       <c r="AE3" t="n">
-        <v>664711.0172840477</v>
+        <v>901554.7767186887</v>
       </c>
       <c r="AF3" t="n">
         <v>5.003349594221026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.22395833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>601271.9307222295</v>
+        <v>815511.6541687325</v>
       </c>
     </row>
     <row r="4">
@@ -14433,19 +14433,19 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>454.7631739668016</v>
+        <v>637.448946362586</v>
       </c>
       <c r="AB4" t="n">
-        <v>622.2270373566574</v>
+        <v>872.1857706760345</v>
       </c>
       <c r="AC4" t="n">
-        <v>562.8425622124691</v>
+        <v>788.9455848431305</v>
       </c>
       <c r="AD4" t="n">
-        <v>454763.1739668016</v>
+        <v>637448.946362586</v>
       </c>
       <c r="AE4" t="n">
-        <v>622227.0373566574</v>
+        <v>872185.7706760345</v>
       </c>
       <c r="AF4" t="n">
         <v>5.17852111439927e-06</v>
@@ -14454,7 +14454,7 @@
         <v>35</v>
       </c>
       <c r="AH4" t="n">
-        <v>562842.5622124692</v>
+        <v>788945.5848431305</v>
       </c>
     </row>
   </sheetData>
@@ -14730,28 +14730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>718.3698114903754</v>
+        <v>951.9743827137089</v>
       </c>
       <c r="AB2" t="n">
-        <v>982.905268320489</v>
+        <v>1302.533348574582</v>
       </c>
       <c r="AC2" t="n">
-        <v>889.0981690281893</v>
+        <v>1178.22139390366</v>
       </c>
       <c r="AD2" t="n">
-        <v>718369.8114903753</v>
+        <v>951974.3827137089</v>
       </c>
       <c r="AE2" t="n">
-        <v>982905.268320489</v>
+        <v>1302533.348574582</v>
       </c>
       <c r="AF2" t="n">
         <v>3.408176911024424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>889098.1690281893</v>
+        <v>1178221.39390366</v>
       </c>
     </row>
     <row r="3">
@@ -14836,28 +14836,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>546.2715015079548</v>
+        <v>740.9639119483725</v>
       </c>
       <c r="AB3" t="n">
-        <v>747.4327681609527</v>
+        <v>1013.819513348484</v>
       </c>
       <c r="AC3" t="n">
-        <v>676.0988337961494</v>
+        <v>917.0620018991274</v>
       </c>
       <c r="AD3" t="n">
-        <v>546271.5015079548</v>
+        <v>740963.9119483725</v>
       </c>
       <c r="AE3" t="n">
-        <v>747432.7681609527</v>
+        <v>1013819.513348484</v>
       </c>
       <c r="AF3" t="n">
         <v>4.229218274784386e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.72395833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>676098.8337961494</v>
+        <v>917062.0018991274</v>
       </c>
     </row>
     <row r="4">
@@ -14942,28 +14942,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>491.1120954167787</v>
+        <v>676.0340116454557</v>
       </c>
       <c r="AB4" t="n">
-        <v>671.961235285754</v>
+        <v>924.9795592489983</v>
       </c>
       <c r="AC4" t="n">
-        <v>607.830198093598</v>
+        <v>836.7008083312381</v>
       </c>
       <c r="AD4" t="n">
-        <v>491112.0954167787</v>
+        <v>676034.0116454557</v>
       </c>
       <c r="AE4" t="n">
-        <v>671961.235285754</v>
+        <v>924979.5592489983</v>
       </c>
       <c r="AF4" t="n">
         <v>4.56119417546521e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.91145833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>607830.198093598</v>
+        <v>836700.8083312381</v>
       </c>
     </row>
     <row r="5">
@@ -15048,28 +15048,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>481.9986663050182</v>
+        <v>657.1510993518117</v>
       </c>
       <c r="AB5" t="n">
-        <v>659.4918395189266</v>
+        <v>899.1431255935382</v>
       </c>
       <c r="AC5" t="n">
-        <v>596.5508639578496</v>
+        <v>813.3301676421928</v>
       </c>
       <c r="AD5" t="n">
-        <v>481998.6663050182</v>
+        <v>657151.0993518117</v>
       </c>
       <c r="AE5" t="n">
-        <v>659491.8395189266</v>
+        <v>899143.1255935383</v>
       </c>
       <c r="AF5" t="n">
         <v>4.668100603038122e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>596550.8639578497</v>
+        <v>813330.1676421928</v>
       </c>
     </row>
   </sheetData>
@@ -15345,28 +15345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>495.5551203445004</v>
+        <v>712.1988540926303</v>
       </c>
       <c r="AB2" t="n">
-        <v>678.0403780042888</v>
+        <v>974.4618921654682</v>
       </c>
       <c r="AC2" t="n">
-        <v>613.3291559632061</v>
+        <v>881.4606168430506</v>
       </c>
       <c r="AD2" t="n">
-        <v>495555.1203445004</v>
+        <v>712198.8540926303</v>
       </c>
       <c r="AE2" t="n">
-        <v>678040.3780042888</v>
+        <v>974461.8921654682</v>
       </c>
       <c r="AF2" t="n">
         <v>8.723885350678517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>613329.1559632061</v>
+        <v>881460.6168430506</v>
       </c>
     </row>
   </sheetData>
@@ -15642,28 +15642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>475.3744964317925</v>
+        <v>654.6920605550833</v>
       </c>
       <c r="AB2" t="n">
-        <v>650.4283580606294</v>
+        <v>895.7785602267194</v>
       </c>
       <c r="AC2" t="n">
-        <v>588.3523884492563</v>
+        <v>810.2867116717861</v>
       </c>
       <c r="AD2" t="n">
-        <v>475374.4964317925</v>
+        <v>654692.0605550833</v>
       </c>
       <c r="AE2" t="n">
-        <v>650428.3580606295</v>
+        <v>895778.5602267194</v>
       </c>
       <c r="AF2" t="n">
         <v>5.778339711131276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.47395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>588352.3884492563</v>
+        <v>810286.711671786</v>
       </c>
     </row>
     <row r="3">
@@ -15748,28 +15748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>441.1952949133939</v>
+        <v>611.0697511761701</v>
       </c>
       <c r="AB3" t="n">
-        <v>603.6628666632064</v>
+        <v>836.0925920540237</v>
       </c>
       <c r="AC3" t="n">
-        <v>546.0501299150237</v>
+        <v>756.29708853171</v>
       </c>
       <c r="AD3" t="n">
-        <v>441195.2949133939</v>
+        <v>611069.7511761702</v>
       </c>
       <c r="AE3" t="n">
-        <v>603662.8666632064</v>
+        <v>836092.5920540238</v>
       </c>
       <c r="AF3" t="n">
         <v>6.136814020296945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.28645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>546050.1299150237</v>
+        <v>756297.08853171</v>
       </c>
     </row>
   </sheetData>
@@ -16045,28 +16045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>547.1300957559022</v>
+        <v>747.7498372686874</v>
       </c>
       <c r="AB2" t="n">
-        <v>748.6075346894991</v>
+        <v>1023.104315745635</v>
       </c>
       <c r="AC2" t="n">
-        <v>677.1614822560065</v>
+        <v>925.4606757867965</v>
       </c>
       <c r="AD2" t="n">
-        <v>547130.0957559021</v>
+        <v>747749.8372686874</v>
       </c>
       <c r="AE2" t="n">
-        <v>748607.5346894991</v>
+        <v>1023104.315745635</v>
       </c>
       <c r="AF2" t="n">
         <v>4.725554787196327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.80729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>677161.4822560064</v>
+        <v>925460.6757867965</v>
       </c>
     </row>
     <row r="3">
@@ -16151,28 +16151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>456.750300134087</v>
+        <v>628.6378779918012</v>
       </c>
       <c r="AB3" t="n">
-        <v>624.9459110445566</v>
+        <v>860.1300782142247</v>
       </c>
       <c r="AC3" t="n">
-        <v>565.3019504115584</v>
+        <v>778.0404707496051</v>
       </c>
       <c r="AD3" t="n">
-        <v>456750.300134087</v>
+        <v>628637.8779918012</v>
       </c>
       <c r="AE3" t="n">
-        <v>624945.9110445566</v>
+        <v>860130.0782142247</v>
       </c>
       <c r="AF3" t="n">
         <v>5.478079779637624e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.20833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>565301.9504115584</v>
+        <v>778040.4707496051</v>
       </c>
     </row>
     <row r="4">
@@ -16257,28 +16257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>445.7958515420883</v>
+        <v>617.7507492075069</v>
       </c>
       <c r="AB4" t="n">
-        <v>609.9575512048202</v>
+        <v>845.2338283053296</v>
       </c>
       <c r="AC4" t="n">
-        <v>551.7440585986311</v>
+        <v>764.565898024997</v>
       </c>
       <c r="AD4" t="n">
-        <v>445795.8515420883</v>
+        <v>617750.7492075069</v>
       </c>
       <c r="AE4" t="n">
-        <v>609957.5512048202</v>
+        <v>845233.8283053295</v>
       </c>
       <c r="AF4" t="n">
         <v>5.518072250449385e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.94791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>551744.0585986311</v>
+        <v>764565.898024997</v>
       </c>
     </row>
   </sheetData>
